--- a/myexcel.xlsx
+++ b/myexcel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>a</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -348,32 +354,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/myexcel.xlsx
+++ b/myexcel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>a</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>f</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -354,42 +360,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
